--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357649.995754168</v>
+        <v>2355273.368806801</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>254.1050747982724</v>
+        <v>56.91750123718731</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.57009008111716</v>
+        <v>18.20224829023952</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>293.464913684318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>160.7679129414086</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>153.7255767798499</v>
+        <v>122.1528448013251</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>69.52905770121524</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920566</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>93.9993014655698</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0432311719069</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>101.491279848496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>186.5877792298983</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>251.5502284016995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141401</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>178.906041312462</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.7932119894607</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>771.8570290615538</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.223806861248</v>
+        <v>1618.060010690417</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.223806861248</v>
+        <v>1421.431262850278</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.223806861248</v>
+        <v>1198.452782045013</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.223806861248</v>
+        <v>909.3344445488509</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.223806861248</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.223806861248</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.23425596323</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="Y4" t="n">
-        <v>1122.4416768197</v>
+        <v>654.6499563429641</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854573</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450455</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>359.3403385450455</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>359.3403385450455</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687.0249717364609</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C7" t="n">
-        <v>518.088788808554</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1378.584353206393</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T7" t="n">
-        <v>1378.584353206393</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U7" t="n">
-        <v>1089.466015710231</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V7" t="n">
-        <v>1089.466015710231</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W7" t="n">
-        <v>1089.466015710231</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X7" t="n">
-        <v>1089.466015710231</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y7" t="n">
-        <v>868.6734365667006</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829026</v>
+        <v>848.1875530107163</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886143</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818638</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251361</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331014</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800307</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130039</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868959</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893148</v>
+        <v>1234.787393074838</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380239</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694955</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.7064461033921</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>513.7702631754852</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>513.7702631754852</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>365.8571695930921</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9672220951817</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336318</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.3549109336318</v>
+        <v>570.1538267018284</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5893,13 +5893,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6309,10 +6309,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,13 +6686,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7728,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.531667803215789e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>185.031718488095</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>65.54986409392973</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.97276993489146</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948099</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>107.2784330767821</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245468</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467445</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719634</v>
-      </c>
       <c r="G4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719672</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>7507.368461719661</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719656</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719647</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719656</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719627</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.0921642962</v>
+        <v>-725022.0921642958</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116235</v>
+        <v>389729.6914116236</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.6914116242</v>
+        <v>389729.6914116237</v>
       </c>
       <c r="E6" t="n">
-        <v>-10755.390142669</v>
+        <v>-10790.12806810398</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818776</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="J6" t="n">
-        <v>329124.873671895</v>
+        <v>329090.135746459</v>
       </c>
       <c r="K6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="L6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="M6" t="n">
-        <v>364122.7577529511</v>
+        <v>364088.0198275151</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564415</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241354</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.1328638577812</v>
+        <v>329.3204374188663</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>36.98748233845646</v>
+        <v>83.35532412933411</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>113.4111320573934</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>45.89027203882515</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>40.9368835818876</v>
+        <v>72.50961556041241</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>295.7438340697923</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802052</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>85.8326787163675</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2633688728973311</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.41060513164848e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727245</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507062</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
